--- a/data/trans_orig/P24C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>105865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92614</v>
+        <v>90308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120516</v>
+        <v>119948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5137469833791832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4494415785047513</v>
+        <v>0.4382498006297865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5848495949679087</v>
+        <v>0.5820898765737262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -764,19 +764,19 @@
         <v>79364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67488</v>
+        <v>66333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92604</v>
+        <v>90841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4699282154419884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3996078236700518</v>
+        <v>0.3927681592389154</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5483239806947305</v>
+        <v>0.5378821777925333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>193</v>
@@ -785,19 +785,19 @@
         <v>185229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167114</v>
+        <v>164990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>207355</v>
+        <v>202621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4940100276370026</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.445695752189978</v>
+        <v>0.4400331185368484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5530193536896122</v>
+        <v>0.5403950329507743</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>84728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71128</v>
+        <v>72714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98956</v>
+        <v>100262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4111741109958174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3451738917039429</v>
+        <v>0.3528704174608863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4802208349444012</v>
+        <v>0.4865556851805471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -835,19 +835,19 @@
         <v>67935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55304</v>
+        <v>56875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79447</v>
+        <v>80958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4022544083431744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3274614095137977</v>
+        <v>0.3367678859452478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4704189771484909</v>
+        <v>0.4793625359466258</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -856,19 +856,19 @@
         <v>152663</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131080</v>
+        <v>135405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171856</v>
+        <v>172461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4071564768911581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3495935852883895</v>
+        <v>0.3611287026110425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4583429775218042</v>
+        <v>0.4599561216412854</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>15471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9256</v>
+        <v>8842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24665</v>
+        <v>23928</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07507890562499941</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04491639573504783</v>
+        <v>0.04290737537136584</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1196971193235541</v>
+        <v>0.1161199276927062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -906,19 +906,19 @@
         <v>21587</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14206</v>
+        <v>14155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31396</v>
+        <v>30638</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1278173762148371</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08411387066728304</v>
+        <v>0.08381459392912678</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.185902573013859</v>
+        <v>0.1814124106981406</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -927,19 +927,19 @@
         <v>37058</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26131</v>
+        <v>27095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49683</v>
+        <v>48985</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09883349547183934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06969183546125943</v>
+        <v>0.07226378856713712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1325046131517702</v>
+        <v>0.1306432353576365</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>204643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185903</v>
+        <v>184171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>225799</v>
+        <v>226224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5128988458488587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4659313986148351</v>
+        <v>0.461588919877345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5659212385644969</v>
+        <v>0.5669875881008519</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -1052,19 +1052,19 @@
         <v>90086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77267</v>
+        <v>74202</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>106355</v>
+        <v>104606</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3868303961840573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3317846209320919</v>
+        <v>0.3186238396636764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4566911615981347</v>
+        <v>0.4491804480855286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>285</v>
@@ -1073,19 +1073,19 @@
         <v>294728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>270848</v>
+        <v>267641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>320930</v>
+        <v>319810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4664354573124268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4286416584808224</v>
+        <v>0.423566750909095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.507902581039649</v>
+        <v>0.5061286731695677</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>160339</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>140674</v>
+        <v>141202</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>179387</v>
+        <v>181936</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.401858746341944</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3525722583627062</v>
+        <v>0.3538971601321181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4495981295225441</v>
+        <v>0.4559875918329672</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>103</v>
@@ -1123,19 +1123,19 @@
         <v>106948</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91391</v>
+        <v>92679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>120982</v>
+        <v>122100</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4592365621963114</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3924353348309217</v>
+        <v>0.3979665804333883</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5195000561182935</v>
+        <v>0.5242982598145669</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>255</v>
@@ -1144,19 +1144,19 @@
         <v>267286</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>242339</v>
+        <v>242643</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>291070</v>
+        <v>292345</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4230057324316576</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3835246898543674</v>
+        <v>0.3840050324837012</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4606461693787154</v>
+        <v>0.4626633242047264</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>34011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24043</v>
+        <v>23632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45610</v>
+        <v>47796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08524240780919731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06025954125146654</v>
+        <v>0.05922938164828777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1143128423603741</v>
+        <v>0.1197903755361977</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1194,19 +1194,19 @@
         <v>35848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25737</v>
+        <v>26189</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49038</v>
+        <v>48143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1539330416196312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1105130496231691</v>
+        <v>0.1124581722315798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2105683305479669</v>
+        <v>0.2067262215207951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1215,19 +1215,19 @@
         <v>69859</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54862</v>
+        <v>55736</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85966</v>
+        <v>86254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1105588102559156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08682384336253891</v>
+        <v>0.08820793310405772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1360500148215682</v>
+        <v>0.1365054817994022</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>137496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118367</v>
+        <v>118830</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>154499</v>
+        <v>155235</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4045675461744945</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3482819098560072</v>
+        <v>0.3496450472322504</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4545980073789631</v>
+        <v>0.4567626706638266</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1340,19 +1340,19 @@
         <v>98134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83680</v>
+        <v>82678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114126</v>
+        <v>113029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3811603332038769</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3250182286659251</v>
+        <v>0.3211292052001175</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4432744982567063</v>
+        <v>0.4390142986859051</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>234</v>
@@ -1361,19 +1361,19 @@
         <v>235629</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>212621</v>
+        <v>212187</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>260657</v>
+        <v>260326</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3944784106523382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3559589033953249</v>
+        <v>0.3552329766758563</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4363785617842966</v>
+        <v>0.4358232980981139</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>135903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118290</v>
+        <v>117793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155851</v>
+        <v>155932</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3998811062659231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3480548216182309</v>
+        <v>0.3465923509386584</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4585751913818942</v>
+        <v>0.4588138072507908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -1411,19 +1411,19 @@
         <v>93786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78893</v>
+        <v>79676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109946</v>
+        <v>109912</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3642717274543957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3064274939164142</v>
+        <v>0.3094697188669265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4270376597903459</v>
+        <v>0.4269079299338726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -1432,19 +1432,19 @@
         <v>229689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206404</v>
+        <v>207351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253754</v>
+        <v>254209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3845325105514192</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3455499420529493</v>
+        <v>0.3471355745380672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4248207528156067</v>
+        <v>0.4255832666625629</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>66460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51749</v>
+        <v>50915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84100</v>
+        <v>82237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1955513475595824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1522672938732542</v>
+        <v>0.1498127864632278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2474552514700486</v>
+        <v>0.2419742599249805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1482,19 +1482,19 @@
         <v>65541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50036</v>
+        <v>52229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78685</v>
+        <v>80740</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2545679393417273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1943447600591437</v>
+        <v>0.2028622665362732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3056191908941197</v>
+        <v>0.3136023338339021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>121</v>
@@ -1503,19 +1503,19 @@
         <v>132001</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111048</v>
+        <v>111776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152021</v>
+        <v>153910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2209890787962427</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1859100248389444</v>
+        <v>0.1871298225308463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2545059516909517</v>
+        <v>0.2576685907743384</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>95689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81403</v>
+        <v>79180</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111583</v>
+        <v>111746</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4076465111318583</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3467863641260084</v>
+        <v>0.3373166541204294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4753581055394818</v>
+        <v>0.4760500011479745</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1628,19 +1628,19 @@
         <v>58289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46663</v>
+        <v>46989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69690</v>
+        <v>70174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.402086440807823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3218880340138371</v>
+        <v>0.3241409214911378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4807367383419301</v>
+        <v>0.484074304748468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>148</v>
@@ -1649,19 +1649,19 @@
         <v>153978</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134471</v>
+        <v>134984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173463</v>
+        <v>173738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4055237266705344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3541509957466272</v>
+        <v>0.3555016589578578</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4568405537025119</v>
+        <v>0.4575657301693768</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>78258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63758</v>
+        <v>61613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93128</v>
+        <v>94465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3333869657935611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2716157329044073</v>
+        <v>0.2624788417341811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3967385501938502</v>
+        <v>0.4024335394494105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -1699,19 +1699,19 @@
         <v>54896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44546</v>
+        <v>44001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67769</v>
+        <v>67240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3786832504315968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.307284315010192</v>
+        <v>0.3035265681408261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4674786006147458</v>
+        <v>0.4638334213212907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -1720,19 +1720,19 @@
         <v>133154</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115282</v>
+        <v>114727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153932</v>
+        <v>151678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3506806767687028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3036117662986156</v>
+        <v>0.3021515414954734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4054037261099891</v>
+        <v>0.399466472177716</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>60789</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47224</v>
+        <v>47072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76788</v>
+        <v>74888</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2589665230745806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2011821279190097</v>
+        <v>0.2005341419462553</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3271281780994831</v>
+        <v>0.3190320039693326</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1770,19 +1770,19 @@
         <v>31781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22426</v>
+        <v>21468</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42542</v>
+        <v>43494</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2192303087605801</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1547005209887959</v>
+        <v>0.1480932108892724</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2934642241253883</v>
+        <v>0.3000297132068993</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -1791,19 +1791,19 @@
         <v>92569</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>77319</v>
+        <v>75799</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109851</v>
+        <v>111024</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2437955965607628</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2036309412389706</v>
+        <v>0.1996291110414928</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.289309652953066</v>
+        <v>0.2923975860427275</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>39024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29549</v>
+        <v>29190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49959</v>
+        <v>49892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3050810887693037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2310080344363735</v>
+        <v>0.2281987659136703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3905702554456483</v>
+        <v>0.3900491322126811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1916,19 +1916,19 @@
         <v>18480</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11876</v>
+        <v>12132</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25665</v>
+        <v>24980</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3941387551524904</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2532927203004492</v>
+        <v>0.2587472207802216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5473698427964298</v>
+        <v>0.532764274480096</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -1937,19 +1937,19 @@
         <v>57504</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45340</v>
+        <v>46138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>69141</v>
+        <v>70704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3289695351951166</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2593830255066359</v>
+        <v>0.2639434212101924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3955436002172433</v>
+        <v>0.4044803183992306</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>31862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22312</v>
+        <v>23301</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41304</v>
+        <v>43063</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2490892091314967</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1744296748133231</v>
+        <v>0.1821632474974826</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3229031153086554</v>
+        <v>0.3366621427302753</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1987,19 +1987,19 @@
         <v>19092</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12716</v>
+        <v>12669</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26866</v>
+        <v>26073</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4071849969768724</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2711905255228675</v>
+        <v>0.2701990341573623</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.57297448249756</v>
+        <v>0.5560780052523658</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -2008,19 +2008,19 @@
         <v>50954</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38671</v>
+        <v>39995</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>62279</v>
+        <v>64484</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2914961451255432</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2212314079175997</v>
+        <v>0.2288043518089736</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.356283081387619</v>
+        <v>0.3689018225151955</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>57027</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46318</v>
+        <v>46429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68580</v>
+        <v>68191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4458297020991996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3621085479396239</v>
+        <v>0.3629739383158254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5361485229230675</v>
+        <v>0.5331068028418049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2058,19 +2058,19 @@
         <v>9316</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4281</v>
+        <v>4882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15782</v>
+        <v>15450</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1986762478706372</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09129922070996473</v>
+        <v>0.1041164406188637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3365932768274471</v>
+        <v>0.3295001205210713</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2079,19 +2079,19 @@
         <v>66343</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54827</v>
+        <v>53853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79695</v>
+        <v>79232</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3795343196793403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3136560558261245</v>
+        <v>0.3080819946616528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.455919956364002</v>
+        <v>0.4532703969395331</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>15512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9447</v>
+        <v>9857</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22167</v>
+        <v>22768</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2917270698192417</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1776567117041171</v>
+        <v>0.185384467499054</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4168800407547398</v>
+        <v>0.4281849989359204</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2204,19 +2204,19 @@
         <v>3859</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1855</v>
+        <v>935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5738</v>
+        <v>5720</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5860516700584556</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2817670175647956</v>
+        <v>0.142029699361656</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.871395167762549</v>
+        <v>0.8686954630647784</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2225,19 +2225,19 @@
         <v>19371</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13148</v>
+        <v>13204</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27019</v>
+        <v>26941</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3241598830382245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2200263641628015</v>
+        <v>0.2209496095642411</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4521444156258216</v>
+        <v>0.4508287758431318</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>12238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6539</v>
+        <v>6817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19020</v>
+        <v>19248</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2301573909076909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1229761268419923</v>
+        <v>0.1281977424427894</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3577039653947309</v>
+        <v>0.3619929250384627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4626</v>
+        <v>4736</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.277802414034744</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7024847486267197</v>
+        <v>0.7191573978551238</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2296,19 +2296,19 @@
         <v>14067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8020</v>
+        <v>8389</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21371</v>
+        <v>21433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2354075879168363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1342010434886879</v>
+        <v>0.1403900481642062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.357629891625334</v>
+        <v>0.3586642537578017</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>25423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18429</v>
+        <v>18643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32750</v>
+        <v>32189</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4781155392730674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.346579116651436</v>
+        <v>0.350612985910438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6159083708813553</v>
+        <v>0.6053567247358491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1361459159068004</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.569024230802806</v>
+        <v>0.568685676285987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -2367,19 +2367,19 @@
         <v>26319</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18818</v>
+        <v>18861</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34221</v>
+        <v>33644</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4404325290449392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3149033217417188</v>
+        <v>0.3156275808160074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5726623119553471</v>
+        <v>0.5629993054304432</v>
       </c>
     </row>
     <row r="27">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5261</v>
+        <v>4994</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07292676528025946</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2322133015114987</v>
+        <v>0.2204297864294429</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5198</v>
+        <v>5737</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06054017322467294</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1904815236614358</v>
+        <v>0.2102345786666743</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>7891</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3666</v>
+        <v>3658</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12877</v>
+        <v>12855</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3483471175683179</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1618341610454108</v>
+        <v>0.1614835633754006</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5684274513125552</v>
+        <v>0.5674681575584202</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2576,19 +2576,19 @@
         <v>10336</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5817</v>
+        <v>5188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15927</v>
+        <v>15597</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3787723188915053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2131733315548061</v>
+        <v>0.1901215631522205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.583681226773045</v>
+        <v>0.5715729217225735</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>13110</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8590</v>
+        <v>8105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17759</v>
+        <v>17528</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5787261171514226</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3792000510692421</v>
+        <v>0.3577803691090201</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.783906299373579</v>
+        <v>0.7737143978980241</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2647,19 +2647,19 @@
         <v>15300</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9860</v>
+        <v>10009</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20105</v>
+        <v>20241</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5606875078838217</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3613484166789911</v>
+        <v>0.3667806553085912</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7367693075985494</v>
+        <v>0.7417429442804032</v>
       </c>
     </row>
     <row r="31">
@@ -2751,19 +2751,19 @@
         <v>599880</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>562721</v>
+        <v>560642</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>638828</v>
+        <v>634813</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4336306500355889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4067701856149983</v>
+        <v>0.4052668244451621</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4617850758257695</v>
+        <v>0.4588823127857108</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>345</v>
@@ -2772,19 +2772,19 @@
         <v>348212</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>321427</v>
+        <v>320269</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>378031</v>
+        <v>378837</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4038168159340124</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3727549224268473</v>
+        <v>0.3714111347697274</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.438397603245874</v>
+        <v>0.439332134927057</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>940</v>
@@ -2793,19 +2793,19 @@
         <v>948092</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>907340</v>
+        <v>898248</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>993718</v>
+        <v>996342</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4221827140007622</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4040359782337771</v>
+        <v>0.3999870240692819</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.442499555886773</v>
+        <v>0.4436680100291157</v>
       </c>
     </row>
     <row r="33">
@@ -2822,19 +2822,19 @@
         <v>511218</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>475288</v>
+        <v>477562</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>547389</v>
+        <v>547299</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3695406271987067</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3435675659399393</v>
+        <v>0.3452114433732053</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3956872241733533</v>
+        <v>0.3956221672669968</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>337</v>
@@ -2843,19 +2843,19 @@
         <v>346931</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>317708</v>
+        <v>316751</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>377229</v>
+        <v>373202</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4023310659015357</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3684413118614261</v>
+        <v>0.3673316944972442</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4374669535623879</v>
+        <v>0.4327970684144466</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>827</v>
@@ -2864,19 +2864,19 @@
         <v>858150</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>814757</v>
+        <v>809114</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>902143</v>
+        <v>902344</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3821315218667643</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3628086799399053</v>
+        <v>0.3602962876335734</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4017214536754578</v>
+        <v>0.4018109407761856</v>
       </c>
     </row>
     <row r="34">
@@ -2893,19 +2893,19 @@
         <v>272291</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>240549</v>
+        <v>244322</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>302147</v>
+        <v>304972</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1968287227657044</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1738839296541113</v>
+        <v>0.1766113418896383</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2184104984842893</v>
+        <v>0.2204527234744067</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>162</v>
@@ -2914,19 +2914,19 @@
         <v>167159</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>144858</v>
+        <v>144240</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>192437</v>
+        <v>191370</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1938521181644519</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1679895889666733</v>
+        <v>0.1672736044287819</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.223166218685228</v>
+        <v>0.2219291128392885</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>424</v>
@@ -2935,19 +2935,19 @@
         <v>439450</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>403801</v>
+        <v>401622</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>472766</v>
+        <v>480985</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1956857641324735</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1798115688105446</v>
+        <v>0.1788412312507267</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2105211043563439</v>
+        <v>0.2141813443244555</v>
       </c>
     </row>
     <row r="35">
@@ -3282,19 +3282,19 @@
         <v>44278</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34846</v>
+        <v>33960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55924</v>
+        <v>56134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2713339489229046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2135338233234287</v>
+        <v>0.2081059517360645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3427009263649178</v>
+        <v>0.3439922568942854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -3303,19 +3303,19 @@
         <v>28425</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20290</v>
+        <v>20057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39718</v>
+        <v>39931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1930786492484564</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1378260979804925</v>
+        <v>0.1362434472772057</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.269788483064437</v>
+        <v>0.2712342403869413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -3324,19 +3324,19 @@
         <v>72702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58944</v>
+        <v>57719</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87853</v>
+        <v>88563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2342190355344538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1898948821540941</v>
+        <v>0.1859495157878069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2830301931623289</v>
+        <v>0.2853161033047809</v>
       </c>
     </row>
     <row r="5">
@@ -3353,19 +3353,19 @@
         <v>87133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74780</v>
+        <v>74363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98583</v>
+        <v>99823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5339550008736571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.458253618298681</v>
+        <v>0.4556969805803982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6041158524837419</v>
+        <v>0.611716771481647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -3374,19 +3374,19 @@
         <v>82827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68854</v>
+        <v>69214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94507</v>
+        <v>93512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5626129498540472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4676996262059212</v>
+        <v>0.470142986148236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.641954997138546</v>
+        <v>0.6351964642468423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -3395,19 +3395,19 @@
         <v>169960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>153419</v>
+        <v>153259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188185</v>
+        <v>188505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5475468892022775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4942563136422287</v>
+        <v>0.4937433701238782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6062591397774054</v>
+        <v>0.6072925563847027</v>
       </c>
     </row>
     <row r="6">
@@ -3424,19 +3424,19 @@
         <v>31774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22480</v>
+        <v>22800</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41741</v>
+        <v>42427</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1947110502034383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1377563288205083</v>
+        <v>0.1397196316049513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2557881985938622</v>
+        <v>0.2599915871503474</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -3445,19 +3445,19 @@
         <v>35967</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26033</v>
+        <v>27111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47937</v>
+        <v>46685</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2443084008974964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1768339544606679</v>
+        <v>0.1841547119536024</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3256177864996128</v>
+        <v>0.3171135646978098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -3466,19 +3466,19 @@
         <v>67741</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54684</v>
+        <v>53728</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82620</v>
+        <v>82304</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2182340752632688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1761711482933997</v>
+        <v>0.1730922410292726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2661686762198397</v>
+        <v>0.2651510471700898</v>
       </c>
     </row>
     <row r="7">
@@ -3570,19 +3570,19 @@
         <v>52589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41480</v>
+        <v>40176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68151</v>
+        <v>67390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1527360008606262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1204733771511082</v>
+        <v>0.1166855263415868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1979332997729674</v>
+        <v>0.1957235350741722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -3591,19 +3591,19 @@
         <v>29777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20400</v>
+        <v>20884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42621</v>
+        <v>41347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1202808904444201</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08240070135042188</v>
+        <v>0.08435591856311628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1721602068151659</v>
+        <v>0.1670167215579619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>82</v>
@@ -3612,19 +3612,19 @@
         <v>82366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67507</v>
+        <v>67179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>100371</v>
+        <v>100543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1391609767846467</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1140551153488569</v>
+        <v>0.1135019545080878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1695812729064056</v>
+        <v>0.1698722373665381</v>
       </c>
     </row>
     <row r="9">
@@ -3641,19 +3641,19 @@
         <v>190535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>170937</v>
+        <v>172291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207504</v>
+        <v>210789</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5533780103393801</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4964599839398395</v>
+        <v>0.5003923387030946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6026639947429187</v>
+        <v>0.6122027730135199</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>129</v>
@@ -3662,19 +3662,19 @@
         <v>136725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>120799</v>
+        <v>119187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>152368</v>
+        <v>152639</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5522779513545777</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4879482088259878</v>
+        <v>0.4814355505841012</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6154664013370247</v>
+        <v>0.6165619227470908</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>311</v>
@@ -3683,19 +3683,19 @@
         <v>327259</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>302806</v>
+        <v>299532</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>351894</v>
+        <v>350605</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.552917887819007</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.51160284650895</v>
+        <v>0.5060710478315721</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5945388005571786</v>
+        <v>0.5923619865001943</v>
       </c>
     </row>
     <row r="10">
@@ -3712,19 +3712,19 @@
         <v>101188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83821</v>
+        <v>82934</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119316</v>
+        <v>118321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2938859887999938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2434448751888037</v>
+        <v>0.240870165522611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3465340713774271</v>
+        <v>0.3436445436007591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3733,19 +3733,19 @@
         <v>81063</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64420</v>
+        <v>66892</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95813</v>
+        <v>97385</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3274411582010022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.260216395233153</v>
+        <v>0.2702009643119267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3870214592513775</v>
+        <v>0.3933721360027849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3754,19 +3754,19 @@
         <v>182251</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159008</v>
+        <v>160466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205859</v>
+        <v>207353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3079211353963462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2686498044157846</v>
+        <v>0.271113272580491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3478068412443697</v>
+        <v>0.3503320372752822</v>
       </c>
     </row>
     <row r="11">
@@ -3858,19 +3858,19 @@
         <v>50212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37024</v>
+        <v>37158</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65349</v>
+        <v>65263</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1553053455370685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1145143096639455</v>
+        <v>0.1149302447376375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2021247303334782</v>
+        <v>0.2018578836787175</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -3879,19 +3879,19 @@
         <v>31464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22177</v>
+        <v>21643</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43840</v>
+        <v>43330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1267505971457905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08933713276827782</v>
+        <v>0.08718800962904312</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1766048754479463</v>
+        <v>0.1745504656375447</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -3900,19 +3900,19 @@
         <v>81676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66104</v>
+        <v>64896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101577</v>
+        <v>100377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1429032740024956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1156580988762537</v>
+        <v>0.1135434158672769</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1777213400362523</v>
+        <v>0.1756232246446645</v>
       </c>
     </row>
     <row r="13">
@@ -3929,19 +3929,19 @@
         <v>174241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154964</v>
+        <v>156642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193807</v>
+        <v>193311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5389279574117271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4793034625697846</v>
+        <v>0.4844924937882749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5994446965897787</v>
+        <v>0.5979118285299005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -3950,19 +3950,19 @@
         <v>116580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101150</v>
+        <v>100544</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132593</v>
+        <v>134072</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.46962667999896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4074706391602805</v>
+        <v>0.4050293607798086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5341325070723429</v>
+        <v>0.5400926012819026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>277</v>
@@ -3971,19 +3971,19 @@
         <v>290821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265263</v>
+        <v>265872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313838</v>
+        <v>314862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5088286062238543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4641124354243475</v>
+        <v>0.4651772339592915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5490993289529396</v>
+        <v>0.550891098082102</v>
       </c>
     </row>
     <row r="14">
@@ -4000,19 +4000,19 @@
         <v>98858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82190</v>
+        <v>81910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116575</v>
+        <v>116372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3057666970512044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2542135275936284</v>
+        <v>0.2533464278401938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3605672452930105</v>
+        <v>0.3599380814801257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -4021,19 +4021,19 @@
         <v>100195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84639</v>
+        <v>84198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115494</v>
+        <v>115489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4036227228552496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3409583011545577</v>
+        <v>0.3391797661102446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4652524345419747</v>
+        <v>0.4652323233859963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -4042,19 +4042,19 @@
         <v>199053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177638</v>
+        <v>175528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223119</v>
+        <v>223370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3482681197736502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.31080127975935</v>
+        <v>0.3071086224896568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3903760466719504</v>
+        <v>0.3908137816034905</v>
       </c>
     </row>
     <row r="15">
@@ -4146,19 +4146,19 @@
         <v>56743</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43240</v>
+        <v>42988</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73646</v>
+        <v>71433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2028115535323091</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1545492911645863</v>
+        <v>0.1536492964481174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2632252265436018</v>
+        <v>0.2553174356119829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -4167,19 +4167,19 @@
         <v>38355</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27856</v>
+        <v>26742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50922</v>
+        <v>51159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1595014779760164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1158426068955396</v>
+        <v>0.1112086491646273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2117658221105602</v>
+        <v>0.2127507828796705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -4188,19 +4188,19 @@
         <v>95098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76887</v>
+        <v>76398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115669</v>
+        <v>112063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1827930939516309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1477900785355186</v>
+        <v>0.1468499474328551</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2223353350348761</v>
+        <v>0.2154029105580737</v>
       </c>
     </row>
     <row r="17">
@@ -4217,19 +4217,19 @@
         <v>105228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89424</v>
+        <v>89560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123290</v>
+        <v>123150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3761071081192034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3196192268273659</v>
+        <v>0.3201070110951527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.440665299466483</v>
+        <v>0.4401648507135847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -4238,19 +4238,19 @@
         <v>95977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80260</v>
+        <v>79255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115288</v>
+        <v>112137</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3991294282952685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3337691809548231</v>
+        <v>0.329590051201794</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4794393039106939</v>
+        <v>0.4663325141847149</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -4259,19 +4259,19 @@
         <v>201205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178955</v>
+        <v>176858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224676</v>
+        <v>224768</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3867483129653822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3439802947492152</v>
+        <v>0.3399495699395675</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4318636565802594</v>
+        <v>0.4320418477379818</v>
       </c>
     </row>
     <row r="18">
@@ -4288,19 +4288,19 @@
         <v>117811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99676</v>
+        <v>98194</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135682</v>
+        <v>134829</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4210813383484875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3562645142328787</v>
+        <v>0.350964970050571</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4849551626524951</v>
+        <v>0.4819059568103544</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>89</v>
@@ -4309,19 +4309,19 @@
         <v>106134</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89409</v>
+        <v>90214</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>124346</v>
+        <v>122957</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4413690937287151</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3718159034018392</v>
+        <v>0.3751649135859887</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5171083581181946</v>
+        <v>0.5113315777371054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -4330,19 +4330,19 @@
         <v>223945</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>200090</v>
+        <v>198183</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>249938</v>
+        <v>246958</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4304585930829869</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3846048594701804</v>
+        <v>0.3809410844345167</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4804227309799303</v>
+        <v>0.4746942570452101</v>
       </c>
     </row>
     <row r="19">
@@ -4434,19 +4434,19 @@
         <v>24006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14935</v>
+        <v>15504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33348</v>
+        <v>33863</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1535231964124366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09551314103406788</v>
+        <v>0.0991514081931833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2132665558453285</v>
+        <v>0.2165610390686865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4455,19 +4455,19 @@
         <v>6375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12901</v>
+        <v>12376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09399023273865251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03137171407467885</v>
+        <v>0.03139119676468462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1902054401484399</v>
+        <v>0.1824517573698225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -4476,19 +4476,19 @@
         <v>30382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20540</v>
+        <v>20817</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41801</v>
+        <v>41675</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1355121412687095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09161552539556984</v>
+        <v>0.0928509543042174</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1864461777348265</v>
+        <v>0.1858865933062628</v>
       </c>
     </row>
     <row r="21">
@@ -4505,19 +4505,19 @@
         <v>47139</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35052</v>
+        <v>36380</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60233</v>
+        <v>59776</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3014590009735154</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.22416467265352</v>
+        <v>0.2326525841277439</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3851993908196991</v>
+        <v>0.3822771208722079</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -4526,19 +4526,19 @@
         <v>34883</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27257</v>
+        <v>25875</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44588</v>
+        <v>43739</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5142826823826268</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4018494087547117</v>
+        <v>0.3814802671753094</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6573659660769618</v>
+        <v>0.6448387360018754</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -4547,19 +4547,19 @@
         <v>82022</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>69530</v>
+        <v>67257</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>97327</v>
+        <v>97642</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3658465070744168</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3101261004259354</v>
+        <v>0.2999905600329423</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4341098384446575</v>
+        <v>0.4355152648078514</v>
       </c>
     </row>
     <row r="22">
@@ -4576,19 +4576,19 @@
         <v>85224</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72698</v>
+        <v>71938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98648</v>
+        <v>98884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.545017802614048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.464910899059521</v>
+        <v>0.4600501773552033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6308692007536592</v>
+        <v>0.6323758755658202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -4597,19 +4597,19 @@
         <v>26570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17957</v>
+        <v>18536</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34839</v>
+        <v>35856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3917270848787207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2647386145342029</v>
+        <v>0.2732692413782558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.513636014369878</v>
+        <v>0.528622844528583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -4618,19 +4618,19 @@
         <v>111794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95996</v>
+        <v>96834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126431</v>
+        <v>127509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4986413516568737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4281730259788238</v>
+        <v>0.431911275950379</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5639249355745564</v>
+        <v>0.5687348685159281</v>
       </c>
     </row>
     <row r="23">
@@ -4722,19 +4722,19 @@
         <v>6795</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2773</v>
+        <v>2350</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13844</v>
+        <v>13095</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1325741181844292</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05410419263743962</v>
+        <v>0.04584177781859479</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2701067217211511</v>
+        <v>0.2554988363744274</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5613</v>
+        <v>5409</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1006043581439541</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2953829720523735</v>
+        <v>0.2846622250269433</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -4764,19 +4764,19 @@
         <v>8707</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3916</v>
+        <v>3908</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16978</v>
+        <v>15758</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1239271052023174</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05574232358894952</v>
+        <v>0.05562242013803532</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2416511973093185</v>
+        <v>0.2242971268728756</v>
       </c>
     </row>
     <row r="25">
@@ -4793,19 +4793,19 @@
         <v>15025</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9215</v>
+        <v>8483</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23571</v>
+        <v>23184</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2931428684680033</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1797858917376326</v>
+        <v>0.1655010103882381</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4598787383051493</v>
+        <v>0.4523426163324916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4814,19 +4814,19 @@
         <v>7730</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3701</v>
+        <v>3624</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12433</v>
+        <v>12873</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4067772582878819</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1947424649428937</v>
+        <v>0.1907097788634502</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6542521842620129</v>
+        <v>0.6774329549324539</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4835,19 +4835,19 @@
         <v>22755</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15885</v>
+        <v>14983</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32032</v>
+        <v>32271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3238781020994985</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2260941175580917</v>
+        <v>0.213262990624846</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4559286995499845</v>
+        <v>0.4593276597697313</v>
       </c>
     </row>
     <row r="26">
@@ -4864,19 +4864,19 @@
         <v>29434</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21449</v>
+        <v>20970</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37172</v>
+        <v>36763</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5742830133475675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4184763333220974</v>
+        <v>0.409135552835916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7252436548546253</v>
+        <v>0.7172783874489694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -4885,19 +4885,19 @@
         <v>9361</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4699</v>
+        <v>4802</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14015</v>
+        <v>13934</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.492618383568164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2472976325473801</v>
+        <v>0.2526834241756952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7374932083200818</v>
+        <v>0.7332674643573474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -4906,19 +4906,19 @@
         <v>38796</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30112</v>
+        <v>28875</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47811</v>
+        <v>47176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5521947926981841</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4285979009492322</v>
+        <v>0.4109904449127985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6805155886166636</v>
+        <v>0.6714796419033954</v>
       </c>
     </row>
     <row r="27">
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5849</v>
+        <v>4787</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04267333675118006</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2161997552419938</v>
+        <v>0.1769560402214314</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9829</v>
+        <v>8676</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1005625860468995</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3162437792188889</v>
+        <v>0.2791458039263059</v>
       </c>
     </row>
     <row r="29">
@@ -5081,19 +5081,19 @@
         <v>5238</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10652</v>
+        <v>10656</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1936454629494829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07237269792345573</v>
+        <v>0.07224407736172479</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3937470961874318</v>
+        <v>0.393895680344419</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5123,19 +5123,19 @@
         <v>6291</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2564</v>
+        <v>2754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11927</v>
+        <v>11813</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2024144038413941</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08248635090246609</v>
+        <v>0.08859592375866826</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3837444845263386</v>
+        <v>0.3800756221418681</v>
       </c>
     </row>
     <row r="30">
@@ -5152,19 +5152,19 @@
         <v>20659</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14821</v>
+        <v>14879</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24237</v>
+        <v>24695</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7636812002993371</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5478727650720303</v>
+        <v>0.549999776827818</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8959399015247133</v>
+        <v>0.9128802228532644</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -5194,19 +5194,19 @@
         <v>21663</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15067</v>
+        <v>15184</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26707</v>
+        <v>26139</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6970230101117064</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4847901478255408</v>
+        <v>0.4885304256352105</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8593026483277635</v>
+        <v>0.8410343283120645</v>
       </c>
     </row>
     <row r="31">
@@ -5298,19 +5298,19 @@
         <v>235777</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>209006</v>
+        <v>207030</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>266579</v>
+        <v>265943</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1752644103548555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1553640173244696</v>
+        <v>0.1538950275768178</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1981608244596898</v>
+        <v>0.1976879200516377</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>128</v>
@@ -5319,19 +5319,19 @@
         <v>138279</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>117172</v>
+        <v>116873</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>161993</v>
+        <v>162456</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.141919711912617</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1202568739081855</v>
+        <v>0.1199499819939584</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1662581312029327</v>
+        <v>0.1667334599107327</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>353</v>
@@ -5340,19 +5340,19 @@
         <v>374056</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>338399</v>
+        <v>337193</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>412575</v>
+        <v>412364</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1612580646001131</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1458859846624034</v>
+        <v>0.1453661299553917</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1778637441159245</v>
+        <v>0.1777727719756548</v>
       </c>
     </row>
     <row r="33">
@@ -5369,19 +5369,19 @@
         <v>624540</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>589678</v>
+        <v>587150</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>663957</v>
+        <v>663730</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.464250229506671</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4383353190793478</v>
+        <v>0.4364565723553414</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4935503632000913</v>
+        <v>0.4933820399796557</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>441</v>
@@ -5390,19 +5390,19 @@
         <v>475773</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>443189</v>
+        <v>443753</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>509855</v>
+        <v>505188</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4882997793712865</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4548579149151252</v>
+        <v>0.4554359785012653</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5232782287392405</v>
+        <v>0.5184883412680703</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1032</v>
@@ -5411,19 +5411,19 @@
         <v>1100313</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1054164</v>
+        <v>1051543</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1155829</v>
+        <v>1148689</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4743521745350007</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4544567491755678</v>
+        <v>0.4533271138881552</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4982854675637208</v>
+        <v>0.4952069684298864</v>
       </c>
     </row>
     <row r="34">
@@ -5440,19 +5440,19 @@
         <v>484949</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>448894</v>
+        <v>448119</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>521187</v>
+        <v>521883</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3604853601384734</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3336842003960143</v>
+        <v>0.333108336953014</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3874226524558166</v>
+        <v>0.3879401465009121</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>327</v>
@@ -5461,19 +5461,19 @@
         <v>360295</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>329950</v>
+        <v>330933</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>392800</v>
+        <v>391663</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3697805087160964</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3386371341415892</v>
+        <v>0.3396460255549702</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4031416872870029</v>
+        <v>0.4019749030341623</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>772</v>
@@ -5482,19 +5482,19 @@
         <v>845243</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>790142</v>
+        <v>796509</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>891406</v>
+        <v>891669</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3643897608648862</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.340635428268086</v>
+        <v>0.3433799684295553</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.384290924277949</v>
+        <v>0.3844042961571777</v>
       </c>
     </row>
     <row r="35">
@@ -5829,19 +5829,19 @@
         <v>24836</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16809</v>
+        <v>16811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35263</v>
+        <v>35307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1745319203775749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1181231407350038</v>
+        <v>0.1181377956982684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2478053896577823</v>
+        <v>0.2481140850009266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5850,19 +5850,19 @@
         <v>18360</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11565</v>
+        <v>11726</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26169</v>
+        <v>26152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1788685337511294</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1126718420427938</v>
+        <v>0.114236327434327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2549449960051989</v>
+        <v>0.2547791983453624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -5871,19 +5871,19 @@
         <v>43196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32725</v>
+        <v>33281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56262</v>
+        <v>55878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1763491715800765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1336000576023104</v>
+        <v>0.1358701876133351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2296918791651714</v>
+        <v>0.2281219524141246</v>
       </c>
     </row>
     <row r="5">
@@ -5900,19 +5900,19 @@
         <v>96775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83741</v>
+        <v>84336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>107361</v>
+        <v>108377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.680067071182708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5884733445720699</v>
+        <v>0.5926558483725014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7544593010298195</v>
+        <v>0.7616015189627116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -5921,19 +5921,19 @@
         <v>47413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37211</v>
+        <v>38039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57398</v>
+        <v>57065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4619201084455443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3625229308674665</v>
+        <v>0.3705962995405497</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5591943177573082</v>
+        <v>0.5559542824112292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -5942,19 +5942,19 @@
         <v>144188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129328</v>
+        <v>128270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158787</v>
+        <v>160314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5886529200449389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.527984385190742</v>
+        <v>0.5236674431704084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6482526923905346</v>
+        <v>0.6544879571186629</v>
       </c>
     </row>
     <row r="6">
@@ -5971,19 +5971,19 @@
         <v>20691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12755</v>
+        <v>12884</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30920</v>
+        <v>30297</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.145401008439717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08963427068147982</v>
+        <v>0.0905431584129965</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2172819839458944</v>
+        <v>0.2129093939177866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -5992,19 +5992,19 @@
         <v>36871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28169</v>
+        <v>28289</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47389</v>
+        <v>47556</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3592113578033263</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2744299186779692</v>
+        <v>0.2756048713041354</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4616874624985317</v>
+        <v>0.4633139487236058</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -6013,19 +6013,19 @@
         <v>57562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45268</v>
+        <v>44118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72222</v>
+        <v>71589</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2349979083749846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1848095153776457</v>
+        <v>0.1801130437338628</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.294850545115492</v>
+        <v>0.2922656301523897</v>
       </c>
     </row>
     <row r="7">
@@ -6117,19 +6117,19 @@
         <v>43978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32394</v>
+        <v>33081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57276</v>
+        <v>58475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1710830268226177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1260186722192808</v>
+        <v>0.128693293049567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2228159365311003</v>
+        <v>0.2274783969873161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -6138,19 +6138,19 @@
         <v>32669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23752</v>
+        <v>23508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43758</v>
+        <v>44163</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1561677429843763</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1135422290069516</v>
+        <v>0.112377059294994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2091785378399939</v>
+        <v>0.2111119043872041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -6159,19 +6159,19 @@
         <v>76647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60601</v>
+        <v>60287</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93532</v>
+        <v>92443</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1643909602160799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1299748782004058</v>
+        <v>0.1293030214357264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2006055765817123</v>
+        <v>0.198269915710643</v>
       </c>
     </row>
     <row r="9">
@@ -6188,19 +6188,19 @@
         <v>149100</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132032</v>
+        <v>133365</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>164932</v>
+        <v>167466</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5800294989654504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5136323536769362</v>
+        <v>0.5188165613367537</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6416207804958746</v>
+        <v>0.6514754305418635</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -6209,19 +6209,19 @@
         <v>106793</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91601</v>
+        <v>93187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>119577</v>
+        <v>121395</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5105026937828556</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4378817095914227</v>
+        <v>0.4454635157826343</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5716113689381255</v>
+        <v>0.580303798077168</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>256</v>
@@ -6230,19 +6230,19 @@
         <v>255893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>234501</v>
+        <v>234550</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>276978</v>
+        <v>276966</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5488347851224076</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5029538724679901</v>
+        <v>0.5030588228051095</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5940567240196518</v>
+        <v>0.5940314355415142</v>
       </c>
     </row>
     <row r="10">
@@ -6259,19 +6259,19 @@
         <v>63978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51577</v>
+        <v>49879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79434</v>
+        <v>78315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2488874742119319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.200646683734537</v>
+        <v>0.19404101224816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3090142318813445</v>
+        <v>0.3046631373831031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -6280,19 +6280,19 @@
         <v>69730</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57231</v>
+        <v>57562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82940</v>
+        <v>84048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.333329563232768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2735803312387438</v>
+        <v>0.2751645755201199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3964775522245393</v>
+        <v>0.4017758406679517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -6301,19 +6301,19 @@
         <v>133708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113930</v>
+        <v>114939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153604</v>
+        <v>153663</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2867742546615126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2443548623367248</v>
+        <v>0.2465194839801702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3294472896676977</v>
+        <v>0.3295745578159477</v>
       </c>
     </row>
     <row r="11">
@@ -6405,19 +6405,19 @@
         <v>37151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26912</v>
+        <v>25829</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50271</v>
+        <v>50314</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.141714174804785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1026584677076765</v>
+        <v>0.09852430505009831</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1917605803710174</v>
+        <v>0.1919272562202252</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -6426,19 +6426,19 @@
         <v>37056</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28227</v>
+        <v>27579</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50030</v>
+        <v>49309</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1709849841827784</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1302431014929961</v>
+        <v>0.127253624596619</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2308496968020566</v>
+        <v>0.2275212570302989</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6447,19 +6447,19 @@
         <v>74207</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60417</v>
+        <v>58838</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91811</v>
+        <v>89822</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.154961102427641</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1261632990820426</v>
+        <v>0.1228666174358404</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1917220284741396</v>
+        <v>0.1875682147530087</v>
       </c>
     </row>
     <row r="13">
@@ -6476,19 +6476,19 @@
         <v>140277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122128</v>
+        <v>123427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156089</v>
+        <v>156047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5350927471534641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4658632968939472</v>
+        <v>0.47081713085938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5954098339853361</v>
+        <v>0.5952512015303881</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -6497,19 +6497,19 @@
         <v>112027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96150</v>
+        <v>98194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125680</v>
+        <v>126072</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5169149431911932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4436579398950254</v>
+        <v>0.4530883395350697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5799152784782958</v>
+        <v>0.5817201085413388</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -6518,19 +6518,19 @@
         <v>252304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225864</v>
+        <v>231264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272161</v>
+        <v>274362</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5268661193782955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4716542479851376</v>
+        <v>0.4829309863842904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5683338122673184</v>
+        <v>0.572928529171107</v>
       </c>
     </row>
     <row r="14">
@@ -6547,19 +6547,19 @@
         <v>84726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69526</v>
+        <v>70190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101523</v>
+        <v>100607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3231930780417508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2652088212005202</v>
+        <v>0.2677447016757884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3872656252195427</v>
+        <v>0.3837687608197064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -6568,19 +6568,19 @@
         <v>67639</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53657</v>
+        <v>54104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81900</v>
+        <v>82014</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3121000726260283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.247583863318223</v>
+        <v>0.2496447123346501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.377903714787206</v>
+        <v>0.3784292085537294</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -6589,19 +6589,19 @@
         <v>152365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132525</v>
+        <v>133663</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>173501</v>
+        <v>175355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3181727781940635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2767408948458696</v>
+        <v>0.2791172757491687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3623082601690829</v>
+        <v>0.3661809427978606</v>
       </c>
     </row>
     <row r="15">
@@ -6693,19 +6693,19 @@
         <v>50033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37865</v>
+        <v>38119</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64851</v>
+        <v>65433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1828679290026925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1383960548221675</v>
+        <v>0.1393226909831609</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2370262304065435</v>
+        <v>0.2391552450333093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6714,19 +6714,19 @@
         <v>20400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12383</v>
+        <v>13168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31269</v>
+        <v>32041</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0914918322840472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.055536691947933</v>
+        <v>0.05905811835336509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1402386497478846</v>
+        <v>0.1437019513982103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -6735,19 +6735,19 @@
         <v>70433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54822</v>
+        <v>54991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89503</v>
+        <v>88195</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1418386039084828</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1104010646888372</v>
+        <v>0.1107411843114157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1802436681648841</v>
+        <v>0.1776091142237878</v>
       </c>
     </row>
     <row r="17">
@@ -6764,19 +6764,19 @@
         <v>113098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95510</v>
+        <v>95648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129171</v>
+        <v>130303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4133675029536713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3490846658408758</v>
+        <v>0.3495908675860292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4721134684250414</v>
+        <v>0.4762529803000229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -6785,19 +6785,19 @@
         <v>101212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85490</v>
+        <v>84920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115639</v>
+        <v>116193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4539307127077562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3834207166812743</v>
+        <v>0.3808654348939107</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5186383891203186</v>
+        <v>0.5211229628581906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>190</v>
@@ -6806,19 +6806,19 @@
         <v>214310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>193468</v>
+        <v>191313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237989</v>
+        <v>239047</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4315810312135774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3896098251023231</v>
+        <v>0.3852699457738101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4792666718712538</v>
+        <v>0.4813977070386009</v>
       </c>
     </row>
     <row r="18">
@@ -6835,19 +6835,19 @@
         <v>110470</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>94294</v>
+        <v>91799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>127391</v>
+        <v>126643</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4037645680436363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3446406537534183</v>
+        <v>0.335520415733421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4656073910116814</v>
+        <v>0.4628754406575745</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -6856,19 +6856,19 @@
         <v>101356</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87214</v>
+        <v>86800</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117453</v>
+        <v>117163</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4545774550081966</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3911521701027091</v>
+        <v>0.3892941479095746</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5267740796498519</v>
+        <v>0.5254726291971156</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>195</v>
@@ -6877,19 +6877,19 @@
         <v>211827</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186729</v>
+        <v>190502</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>232839</v>
+        <v>236225</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4265803648779398</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3760378128476684</v>
+        <v>0.3836361444191315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4688954993578624</v>
+        <v>0.4757144927602444</v>
       </c>
     </row>
     <row r="19">
@@ -6981,19 +6981,19 @@
         <v>14342</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7891</v>
+        <v>7941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23534</v>
+        <v>23199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09767148119991621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05374074659367502</v>
+        <v>0.05407958278597706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1602755183869425</v>
+        <v>0.1579898548452848</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -7002,19 +7002,19 @@
         <v>11103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5563</v>
+        <v>5507</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19058</v>
+        <v>19406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1000947872157242</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05014593890393459</v>
+        <v>0.04964460688977652</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1718049401298183</v>
+        <v>0.1749431585105195</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -7023,19 +7023,19 @@
         <v>25445</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17022</v>
+        <v>16620</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38009</v>
+        <v>37029</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09871434156113021</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06603772652757409</v>
+        <v>0.06447786874028089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1474579227930861</v>
+        <v>0.1436534529046167</v>
       </c>
     </row>
     <row r="21">
@@ -7052,19 +7052,19 @@
         <v>51228</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40320</v>
+        <v>39456</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64441</v>
+        <v>63985</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.348875993650357</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2745905833397163</v>
+        <v>0.2687109582130083</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4388637453000124</v>
+        <v>0.4357561196625839</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -7073,19 +7073,19 @@
         <v>41724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31391</v>
+        <v>31807</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52980</v>
+        <v>52966</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3761388448052294</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2829848762645728</v>
+        <v>0.2867371990382956</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4776106335297186</v>
+        <v>0.4774849588150729</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>80</v>
@@ -7094,19 +7094,19 @@
         <v>92952</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>76006</v>
+        <v>76122</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109764</v>
+        <v>109069</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3606084560870557</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2948668500322109</v>
+        <v>0.2953176692657586</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4258301235906051</v>
+        <v>0.4231368020799353</v>
       </c>
     </row>
     <row r="22">
@@ -7123,19 +7123,19 @@
         <v>81267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68438</v>
+        <v>69001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93405</v>
+        <v>94183</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5534525251497268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4660880132287558</v>
+        <v>0.4699193795887632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6361158567825568</v>
+        <v>0.641415098701123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -7144,19 +7144,19 @@
         <v>58100</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47251</v>
+        <v>46617</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69470</v>
+        <v>69118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5237663679790464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4259576423566216</v>
+        <v>0.4202500064051559</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6262576472144363</v>
+        <v>0.6230932605963373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -7165,19 +7165,19 @@
         <v>139367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121732</v>
+        <v>122502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156523</v>
+        <v>156450</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.540677202351814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4722605287647648</v>
+        <v>0.4752488341233076</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6072336129139577</v>
+        <v>0.6069487702647923</v>
       </c>
     </row>
     <row r="23">
@@ -7269,19 +7269,19 @@
         <v>5598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2046</v>
+        <v>1928</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12055</v>
+        <v>12271</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09613279832777862</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03513560654904909</v>
+        <v>0.03310635826413</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2070249241204249</v>
+        <v>0.2107226826771764</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7290,19 +7290,19 @@
         <v>3696</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8745</v>
+        <v>8982</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1230931209052194</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0348105314380863</v>
+        <v>0.03434571426513297</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2912327731631779</v>
+        <v>0.2991426190797897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -7311,19 +7311,19 @@
         <v>9294</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4523</v>
+        <v>4207</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17665</v>
+        <v>16664</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1053052084566298</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05124439811543453</v>
+        <v>0.04766218943426904</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2001516287373732</v>
+        <v>0.1888096841978585</v>
       </c>
     </row>
     <row r="25">
@@ -7340,19 +7340,19 @@
         <v>11504</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6152</v>
+        <v>6078</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18413</v>
+        <v>19055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1975489530328883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1056434979819574</v>
+        <v>0.1043689876075601</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3162047713360073</v>
+        <v>0.3272273467035567</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7361,19 +7361,19 @@
         <v>14740</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9321</v>
+        <v>9327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20407</v>
+        <v>20532</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4908921170371687</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3104262535805289</v>
+        <v>0.3106252477438424</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6796352226773685</v>
+        <v>0.6837825352529958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -7382,19 +7382,19 @@
         <v>26244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18243</v>
+        <v>18202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36609</v>
+        <v>35594</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2973498289687557</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2067010902175582</v>
+        <v>0.2062343677656457</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4147865472463347</v>
+        <v>0.4032932887489522</v>
       </c>
     </row>
     <row r="26">
@@ -7411,19 +7411,19 @@
         <v>41130</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33820</v>
+        <v>33959</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47644</v>
+        <v>47981</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7063182486393331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5807738820142118</v>
+        <v>0.5831633637987905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.818183341029055</v>
+        <v>0.8239611981909873</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -7432,19 +7432,19 @@
         <v>11591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6424</v>
+        <v>6918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18038</v>
+        <v>17380</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3860147620576119</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2139260330128598</v>
+        <v>0.2304005262099151</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6007280980143653</v>
+        <v>0.578823589700224</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -7453,19 +7453,19 @@
         <v>52721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42649</v>
+        <v>42200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61995</v>
+        <v>61656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5973449625746144</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4832233723036654</v>
+        <v>0.4781416327408929</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7024232041049019</v>
+        <v>0.6985858318968386</v>
       </c>
     </row>
     <row r="27">
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3882</v>
+        <v>3962</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03446327936996285</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1686035377054659</v>
+        <v>0.1720464578218871</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4195</v>
+        <v>3879</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02556570369166769</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1351296883802611</v>
+        <v>0.1249518686191911</v>
       </c>
     </row>
     <row r="29">
@@ -7620,19 +7620,19 @@
         <v>7926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4603</v>
+        <v>4637</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12840</v>
+        <v>12104</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3441966250148554</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1998829380129904</v>
+        <v>0.2013850634680418</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5575884102788121</v>
+        <v>0.5256551013591823</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5213</v>
+        <v>5220</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1574248352791937</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6504953111303714</v>
+        <v>0.6514170955639553</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -7662,19 +7662,19 @@
         <v>9187</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5158</v>
+        <v>4835</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14654</v>
+        <v>14075</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2959767177940681</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1661715938891626</v>
+        <v>0.1557482981447377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4720707628358348</v>
+        <v>0.4534461960862478</v>
       </c>
     </row>
     <row r="30">
@@ -7691,19 +7691,19 @@
         <v>14308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10057</v>
+        <v>9545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18299</v>
+        <v>17638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6213400956151818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4367596538608346</v>
+        <v>0.4145322835271895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7946711672265746</v>
+        <v>0.7659514641357178</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -7712,7 +7712,7 @@
         <v>6752</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2801</v>
+        <v>2794</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>8014</v>
@@ -7721,7 +7721,7 @@
         <v>0.8425751647208063</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3495046888696286</v>
+        <v>0.3485829044360451</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -7733,19 +7733,19 @@
         <v>21060</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15759</v>
+        <v>15959</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>25183</v>
+        <v>25569</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6784575785142642</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5076811630714613</v>
+        <v>0.5141380837259896</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8112660830874372</v>
+        <v>0.8237165835495646</v>
       </c>
     </row>
     <row r="31">
@@ -7837,19 +7837,19 @@
         <v>176731</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>152980</v>
+        <v>151118</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>203486</v>
+        <v>202284</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1519343472266239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1315156396427168</v>
+        <v>0.1299148401054538</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1749354134471782</v>
+        <v>0.1739017627151984</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -7858,19 +7858,19 @@
         <v>123284</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>102790</v>
+        <v>105396</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>144968</v>
+        <v>144889</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1369072363717772</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1141488213735626</v>
+        <v>0.11704217979521</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1609868426636065</v>
+        <v>0.1608995534570556</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>281</v>
@@ -7879,19 +7879,19 @@
         <v>300016</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>268503</v>
+        <v>267939</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>335881</v>
+        <v>333096</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1453772779784554</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1301072980887817</v>
+        <v>0.1298338536940984</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1627565454991253</v>
+        <v>0.1614068919776242</v>
       </c>
     </row>
     <row r="33">
@@ -7908,19 +7908,19 @@
         <v>569906</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>536453</v>
+        <v>532306</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>604517</v>
+        <v>603393</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4899436880882839</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4611841731959792</v>
+        <v>0.4576196457150367</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5196982006597394</v>
+        <v>0.5187318603459954</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>414</v>
@@ -7929,19 +7929,19 @@
         <v>425171</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>397700</v>
+        <v>394990</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>457102</v>
+        <v>453545</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4721528630872276</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4416464922533834</v>
+        <v>0.4386368962708019</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5076124031934357</v>
+        <v>0.5036615423456181</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>949</v>
@@ -7950,19 +7950,19 @@
         <v>995078</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>950091</v>
+        <v>947130</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1041375</v>
+        <v>1042130</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4821806741170155</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4603815872258197</v>
+        <v>0.4589469119601337</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5046147306977161</v>
+        <v>0.5049807777257515</v>
       </c>
     </row>
     <row r="34">
@@ -7979,19 +7979,19 @@
         <v>416570</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>384139</v>
+        <v>383927</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>451838</v>
+        <v>448609</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3581219646850922</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3302412866564668</v>
+        <v>0.3300593345369534</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3884417437453662</v>
+        <v>0.3856654555409252</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>335</v>
@@ -8000,19 +8000,19 @@
         <v>352039</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>321722</v>
+        <v>324321</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>381284</v>
+        <v>380309</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3909399005409953</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3572726392827607</v>
+        <v>0.3601582612404701</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4234159586793076</v>
+        <v>0.4223338063547985</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>723</v>
@@ -8021,19 +8021,19 @@
         <v>768610</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>724028</v>
+        <v>725121</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>815649</v>
+        <v>813407</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3724420479045291</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3508392475666237</v>
+        <v>0.3513687877546574</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3952358014306938</v>
+        <v>0.3941490634660501</v>
       </c>
     </row>
     <row r="35">
